--- a/output/DiagnosticReport/servicerequest-imag-report-1.xlsx
+++ b/output/DiagnosticReport/servicerequest-imag-report-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="500">
   <si>
     <t>Path</t>
   </si>
@@ -160,7 +160,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}inv-dh-prr-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-prr-02:The requester shall at least have a reference or an identifier with at least a system and a value {requester.reference.exists() or requester.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -797,7 +797,7 @@
     <t>ServiceRequest.status</t>
   </si>
   <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+    <t>active | on-hold | completed</t>
   </si>
   <si>
     <t>The status of the order.</t>
@@ -806,10 +806,7 @@
     <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
-    <t>The status of a service order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/requeststatus-reporting-1</t>
   </si>
   <si>
     <t>Request.status</t>
@@ -1066,7 +1063,7 @@
     <t>ServiceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/patient-ident-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-ident-1)
 </t>
   </si>
   <si>
@@ -1219,7 +1216,7 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/organization-ident-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-ident-1)
 </t>
   </si>
   <si>
@@ -1768,7 +1765,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.81640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.17578125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -3052,7 +3049,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>43</v>
@@ -5270,11 +5267,9 @@
       <c r="W31" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="X31" t="s" s="2">
+      <c r="X31" s="2"/>
+      <c r="Y31" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
@@ -5307,24 +5302,24 @@
         <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5350,13 +5345,13 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5364,7 +5359,7 @@
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>44</v>
@@ -5385,11 +5380,11 @@
         <v>145</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>265</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>44</v>
       </c>
@@ -5406,7 +5401,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>52</v>
@@ -5421,16 +5416,16 @@
         <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
@@ -5438,7 +5433,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5464,16 +5459,16 @@
         <v>151</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5483,29 +5478,29 @@
         <v>44</v>
       </c>
       <c r="R33" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W33" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="S33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W33" t="s" s="2">
+      <c r="X33" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
       </c>
@@ -5522,7 +5517,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5540,13 +5535,13 @@
         <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="AM33" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5554,7 +5549,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5580,10 +5575,10 @@
         <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5591,7 +5586,7 @@
         <v>44</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q34" t="s" s="2">
         <v>44</v>
@@ -5615,11 +5610,11 @@
         <v>145</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5636,7 +5631,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5651,16 +5646,16 @@
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5668,7 +5663,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5691,26 +5686,26 @@
         <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P35" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="O35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="Q35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5754,7 +5749,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5769,13 +5764,13 @@
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>44</v>
@@ -5786,11 +5781,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5812,13 +5807,13 @@
         <v>151</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5844,14 +5839,14 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
       </c>
@@ -5868,7 +5863,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5883,24 +5878,24 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6012,7 +6007,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6126,7 +6121,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6198,7 +6193,7 @@
         <v>44</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
@@ -6240,10 +6235,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>44</v>
@@ -6268,7 +6263,7 @@
         <v>162</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>164</v>
@@ -6306,7 +6301,7 @@
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6356,7 +6351,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6472,11 +6467,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6498,13 +6493,13 @@
         <v>151</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6530,14 +6525,14 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>325</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6554,7 +6549,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6563,7 +6558,7 @@
         <v>43</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>64</v>
@@ -6572,21 +6567,21 @@
         <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6609,17 +6604,17 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6668,7 +6663,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6686,10 +6681,10 @@
         <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>44</v>
@@ -6700,7 +6695,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6723,13 +6718,13 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6780,7 +6775,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>52</v>
@@ -6795,28 +6790,28 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>342</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6835,13 +6830,13 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6892,7 +6887,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6907,28 +6902,28 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>352</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6947,13 +6942,13 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7004,7 +6999,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7019,24 +7014,24 @@
         <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>362</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7059,13 +7054,13 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7092,14 +7087,14 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
       </c>
@@ -7116,7 +7111,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7137,22 +7132,22 @@
         <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>370</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7171,13 +7166,13 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7228,7 +7223,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7243,28 +7238,28 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7283,16 +7278,16 @@
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7342,7 +7337,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7357,28 +7352,28 @@
         <v>64</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>391</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7400,13 +7395,13 @@
         <v>151</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7432,14 +7427,14 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>398</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7456,7 +7451,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7471,16 +7466,16 @@
         <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7488,7 +7483,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7600,7 +7595,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7714,7 +7709,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7786,7 +7781,7 @@
         <v>44</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
@@ -7828,10 +7823,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>44</v>
@@ -7856,7 +7851,7 @@
         <v>162</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>164</v>
@@ -7894,7 +7889,7 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -7944,10 +7939,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>44</v>
@@ -7972,7 +7967,7 @@
         <v>162</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>164</v>
@@ -8010,7 +8005,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -8060,7 +8055,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8176,11 +8171,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8199,16 +8194,16 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8258,7 +8253,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8273,16 +8268,16 @@
         <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="AM57" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
@@ -8290,7 +8285,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8316,10 +8311,10 @@
         <v>151</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8346,14 +8341,14 @@
         <v>44</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>44</v>
       </c>
@@ -8370,7 +8365,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8391,10 +8386,10 @@
         <v>44</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
@@ -8402,7 +8397,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8425,13 +8420,13 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8482,7 +8477,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8503,10 +8498,10 @@
         <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8514,7 +8509,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8540,13 +8535,13 @@
         <v>151</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8572,14 +8567,14 @@
         <v>44</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>438</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8596,7 +8591,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8611,16 +8606,16 @@
         <v>64</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -8628,7 +8623,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8651,16 +8646,16 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8710,7 +8705,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8725,16 +8720,16 @@
         <v>64</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AL61" t="s" s="2">
-        <v>450</v>
-      </c>
       <c r="AM61" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
@@ -8742,7 +8737,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8765,13 +8760,13 @@
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8822,7 +8817,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8837,13 +8832,13 @@
         <v>64</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
@@ -8854,11 +8849,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8877,16 +8872,16 @@
         <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8936,7 +8931,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8951,13 +8946,13 @@
         <v>64</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AK63" t="s" s="2">
+      <c r="AL63" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -8968,7 +8963,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8991,16 +8986,16 @@
         <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9050,7 +9045,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9068,10 +9063,10 @@
         <v>44</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
@@ -9082,11 +9077,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9108,16 +9103,16 @@
         <v>151</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
@@ -9142,14 +9137,14 @@
         <v>44</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>481</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>44</v>
       </c>
@@ -9166,7 +9161,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9184,21 +9179,21 @@
         <v>44</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>483</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9221,13 +9216,13 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>12</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9278,7 +9273,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9293,24 +9288,24 @@
         <v>64</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AK66" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>489</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9336,10 +9331,10 @@
         <v>54</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9390,7 +9385,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9408,10 +9403,10 @@
         <v>44</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>44</v>
@@ -9422,7 +9417,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9445,16 +9440,16 @@
         <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9504,7 +9499,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9519,13 +9514,13 @@
         <v>64</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>44</v>

--- a/output/DiagnosticReport/servicerequest-imag-report-1.xlsx
+++ b/output/DiagnosticReport/servicerequest-imag-report-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="499">
   <si>
     <t>Path</t>
   </si>
@@ -160,7 +160,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}inv-dh-prr-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-prr-02:The requester shall at least have a reference or an identifier with at least a system and a value {requester.reference.exists() or requester.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}inv-dh-prr-03:One category shall be '363679005' 'http://snomed.info/sct' {category.coding.where(system='http://snomed.info/sct' and code='363679005').exists()}inv-dh-prr-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-prr-02:The requester shall at least have a reference or an identifier with at least a system and a value {requester.reference.exists() or requester.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -867,14 +867,6 @@
   </si>
   <si>
     <t>Used for filtering what service request are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://snomed.info/sct"/&gt;
-    &lt;code value="363679005"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>example</t>
@@ -5478,28 +5470,28 @@
         <v>44</v>
       </c>
       <c r="R33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W33" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="S33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W33" t="s" s="2">
+      <c r="X33" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5535,10 +5527,10 @@
         <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>267</v>
@@ -5549,7 +5541,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5575,10 +5567,10 @@
         <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5586,7 +5578,7 @@
         <v>44</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q34" t="s" s="2">
         <v>44</v>
@@ -5610,11 +5602,11 @@
         <v>145</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5631,7 +5623,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5646,16 +5638,16 @@
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5663,7 +5655,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5686,26 +5678,26 @@
         <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P35" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="O35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="Q35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5749,7 +5741,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5764,13 +5756,13 @@
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>44</v>
@@ -5781,11 +5773,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5807,13 +5799,13 @@
         <v>151</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5839,14 +5831,14 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
       </c>
@@ -5863,7 +5855,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5878,24 +5870,24 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>309</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6007,7 +5999,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6121,7 +6113,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6193,7 +6185,7 @@
         <v>44</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
@@ -6235,10 +6227,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>44</v>
@@ -6263,7 +6255,7 @@
         <v>162</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>164</v>
@@ -6301,7 +6293,7 @@
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6351,7 +6343,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6467,11 +6459,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6493,13 +6485,13 @@
         <v>151</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6525,14 +6517,14 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6549,7 +6541,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6558,7 +6550,7 @@
         <v>43</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>64</v>
@@ -6567,21 +6559,21 @@
         <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6604,17 +6596,17 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6663,7 +6655,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6681,10 +6673,10 @@
         <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>44</v>
@@ -6695,7 +6687,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6718,13 +6710,13 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6775,7 +6767,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>52</v>
@@ -6790,28 +6782,28 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>341</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6830,13 +6822,13 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6887,7 +6879,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6902,28 +6894,28 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>351</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6942,13 +6934,13 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6999,7 +6991,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7014,24 +7006,24 @@
         <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>361</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7054,13 +7046,13 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7087,14 +7079,14 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
       </c>
@@ -7111,7 +7103,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7132,22 +7124,22 @@
         <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>369</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7166,13 +7158,13 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7223,7 +7215,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7238,28 +7230,28 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>379</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7278,16 +7270,16 @@
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7337,7 +7329,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7352,28 +7344,28 @@
         <v>64</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>390</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7395,13 +7387,13 @@
         <v>151</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7427,14 +7419,14 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7451,7 +7443,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7466,16 +7458,16 @@
         <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7483,7 +7475,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7595,7 +7587,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7709,7 +7701,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7781,7 +7773,7 @@
         <v>44</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
@@ -7823,10 +7815,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>44</v>
@@ -7851,7 +7843,7 @@
         <v>162</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>164</v>
@@ -7889,7 +7881,7 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -7939,10 +7931,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>44</v>
@@ -7967,7 +7959,7 @@
         <v>162</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>164</v>
@@ -8005,7 +7997,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -8055,7 +8047,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8171,11 +8163,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8194,16 +8186,16 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8253,7 +8245,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8268,16 +8260,16 @@
         <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="AM57" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
@@ -8285,7 +8277,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8311,10 +8303,10 @@
         <v>151</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8341,14 +8333,14 @@
         <v>44</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>426</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>44</v>
       </c>
@@ -8365,7 +8357,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8386,10 +8378,10 @@
         <v>44</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
@@ -8397,7 +8389,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8420,13 +8412,13 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8477,7 +8469,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8498,10 +8490,10 @@
         <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8509,7 +8501,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8535,13 +8527,13 @@
         <v>151</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8567,14 +8559,14 @@
         <v>44</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8591,7 +8583,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8606,16 +8598,16 @@
         <v>64</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -8623,7 +8615,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8646,16 +8638,16 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8705,7 +8697,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8720,16 +8712,16 @@
         <v>64</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AL61" t="s" s="2">
-        <v>449</v>
-      </c>
       <c r="AM61" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
@@ -8737,7 +8729,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8760,13 +8752,13 @@
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8817,7 +8809,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8832,13 +8824,13 @@
         <v>64</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
@@ -8849,11 +8841,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8872,16 +8864,16 @@
         <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8931,7 +8923,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8946,13 +8938,13 @@
         <v>64</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AK63" t="s" s="2">
+      <c r="AL63" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -8963,7 +8955,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8986,16 +8978,16 @@
         <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9045,7 +9037,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9063,10 +9055,10 @@
         <v>44</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
@@ -9077,11 +9069,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9103,16 +9095,16 @@
         <v>151</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
@@ -9137,14 +9129,14 @@
         <v>44</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>44</v>
       </c>
@@ -9161,7 +9153,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9179,21 +9171,21 @@
         <v>44</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>482</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9216,13 +9208,13 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>12</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9273,7 +9265,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9288,24 +9280,24 @@
         <v>64</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AK66" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>488</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9331,10 +9323,10 @@
         <v>54</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9385,7 +9377,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9403,10 +9395,10 @@
         <v>44</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>44</v>
@@ -9417,7 +9409,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9440,16 +9432,16 @@
         <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9499,7 +9491,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9514,13 +9506,13 @@
         <v>64</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>44</v>

--- a/output/DiagnosticReport/servicerequest-imag-report-1.xlsx
+++ b/output/DiagnosticReport/servicerequest-imag-report-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$77</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="532">
   <si>
     <t>Path</t>
   </si>
@@ -979,31 +979,6 @@
     <t>Procedure.procedureCode</t>
   </si>
   <si>
-    <t>ServiceRequest.code.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.coding</t>
-  </si>
-  <si>
-    <t>value:system}
-value:code}</t>
-  </si>
-  <si>
-    <t>snomedImagingProcedure</t>
-  </si>
-  <si>
-    <t>Imaging Procedure (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.text</t>
-  </si>
-  <si>
     <t>ServiceRequest.orderDetail</t>
   </si>
   <si>
@@ -1292,6 +1267,126 @@
     <t>https://healthterminologies.gov.au/fhir/ValueSet/anzsco-1</t>
   </si>
   <si>
+    <t>ServiceRequest.performerType.coding.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.coding.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://www.abs.gov.au/ausstats/abs@.nsf/mf/1220.0</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
     <t>snomedPerformerType</t>
   </si>
   <si>
@@ -1299,6 +1394,9 @@
   </si>
   <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/practitioner-role-1</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>ServiceRequest.performerType.text</t>
@@ -1724,7 +1822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN68"/>
+  <dimension ref="A1:AN77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1733,8 +1831,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.10546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.38671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.75390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="42.98046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -5891,14 +5989,14 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>44</v>
+        <v>310</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
@@ -5907,18 +6005,20 @@
         <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>131</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5943,13 +6043,13 @@
         <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
@@ -5967,50 +6067,50 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>133</v>
+        <v>309</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>44</v>
+        <v>317</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>134</v>
+        <v>306</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>44</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>44</v>
@@ -6019,21 +6119,21 @@
         <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>97</v>
+        <v>319</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>136</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
@@ -6069,40 +6169,40 @@
         <v>44</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>139</v>
+        <v>318</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>44</v>
+        <v>317</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>134</v>
+        <v>323</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>44</v>
@@ -6111,9 +6211,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6121,13 +6221,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>44</v>
@@ -6136,20 +6236,16 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>162</v>
+        <v>325</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>163</v>
+        <v>326</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>44</v>
       </c>
@@ -6185,23 +6281,25 @@
         <v>44</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AB39" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>168</v>
+        <v>324</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>44</v>
@@ -6210,30 +6308,28 @@
         <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>44</v>
+        <v>328</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>169</v>
+        <v>329</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>44</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6252,20 +6348,16 @@
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>162</v>
+        <v>335</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6289,11 +6381,13 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>315</v>
+        <v>44</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6311,13 +6405,13 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>168</v>
+        <v>333</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
@@ -6326,28 +6420,28 @@
         <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>44</v>
+        <v>338</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>169</v>
+        <v>339</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>44</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6366,20 +6460,16 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>54</v>
+        <v>345</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>172</v>
+        <v>346</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6427,7 +6517,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>176</v>
+        <v>343</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6442,35 +6532,35 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>44</v>
+        <v>348</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>177</v>
+        <v>349</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>178</v>
+        <v>350</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>44</v>
+        <v>351</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>44</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>318</v>
+        <v>44</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>44</v>
@@ -6482,17 +6572,15 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>151</v>
+        <v>354</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6520,10 +6608,10 @@
         <v>273</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
@@ -6541,16 +6629,16 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>64</v>
@@ -6559,35 +6647,35 @@
         <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>325</v>
+        <v>44</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>306</v>
+        <v>359</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>308</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>44</v>
+        <v>362</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>44</v>
@@ -6596,18 +6684,16 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>330</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
@@ -6655,7 +6741,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6670,28 +6756,28 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>44</v>
+        <v>366</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>44</v>
+        <v>369</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>44</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>44</v>
+        <v>372</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6710,15 +6796,17 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6767,10 +6855,10 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>52</v>
@@ -6782,28 +6870,28 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>340</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6822,15 +6910,17 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>343</v>
+        <v>151</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6855,13 +6945,13 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>44</v>
+        <v>387</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>44</v>
+        <v>388</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6879,7 +6969,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6894,28 +6984,28 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>350</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>352</v>
+        <v>44</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6931,16 +7021,16 @@
         <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>353</v>
+        <v>54</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>354</v>
+        <v>131</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>355</v>
+        <v>132</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6991,7 +7081,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>351</v>
+        <v>133</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7003,38 +7093,38 @@
         <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>356</v>
+        <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>357</v>
+        <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>358</v>
+        <v>134</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>359</v>
+        <v>44</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>360</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
@@ -7043,18 +7133,20 @@
         <v>44</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>362</v>
+        <v>97</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>363</v>
+        <v>136</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -7079,43 +7171,43 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>365</v>
+        <v>44</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>366</v>
+        <v>44</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>361</v>
+        <v>139</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>44</v>
@@ -7124,32 +7216,32 @@
         <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>367</v>
+        <v>134</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>368</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>370</v>
+        <v>44</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>44</v>
@@ -7158,16 +7250,20 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>372</v>
+        <v>163</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7203,25 +7299,23 @@
         <v>44</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>168</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
@@ -7230,38 +7324,40 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>375</v>
+        <v>169</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>376</v>
+        <v>170</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>377</v>
+        <v>44</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>378</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="C49" t="s" s="2">
-        <v>380</v>
+        <v>44</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>44</v>
@@ -7270,18 +7366,20 @@
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>381</v>
+        <v>162</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>383</v>
+        <v>164</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7305,13 +7403,11 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>44</v>
+        <v>399</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -7329,13 +7425,13 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>379</v>
+        <v>168</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
@@ -7344,28 +7440,28 @@
         <v>64</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>386</v>
+        <v>169</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>387</v>
+        <v>170</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>388</v>
+        <v>44</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>389</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>391</v>
+        <v>44</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7381,20 +7477,18 @@
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>392</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7419,13 +7513,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>395</v>
+        <v>44</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>396</v>
+        <v>44</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7443,7 +7537,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>390</v>
+        <v>133</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7455,19 +7549,19 @@
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>397</v>
+        <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>398</v>
+        <v>44</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>399</v>
+        <v>134</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7479,14 +7573,14 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
@@ -7498,15 +7592,17 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7543,31 +7639,31 @@
         <v>44</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>44</v>
@@ -7591,14 +7687,14 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>44</v>
@@ -7607,27 +7703,29 @@
         <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>136</v>
+        <v>403</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>137</v>
+        <v>404</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>44</v>
@@ -7657,40 +7755,40 @@
         <v>44</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>139</v>
+        <v>408</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>44</v>
+        <v>409</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>134</v>
+        <v>410</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
@@ -7701,7 +7799,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7712,7 +7810,7 @@
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7724,20 +7822,18 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>163</v>
+        <v>412</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>164</v>
+        <v>413</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>44</v>
       </c>
@@ -7773,23 +7869,25 @@
         <v>44</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AB53" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>168</v>
+        <v>415</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
@@ -7801,10 +7899,10 @@
         <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>169</v>
+        <v>416</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>170</v>
+        <v>417</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -7815,11 +7913,9 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7840,19 +7936,17 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>166</v>
+        <v>421</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
@@ -7877,11 +7971,13 @@
         <v>44</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X54" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y54" t="s" s="2">
-        <v>407</v>
+        <v>44</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -7899,13 +7995,13 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>168</v>
+        <v>422</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
@@ -7917,10 +8013,10 @@
         <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>169</v>
+        <v>423</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>170</v>
+        <v>424</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
@@ -7931,11 +8027,9 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>44</v>
       </c>
@@ -7956,19 +8050,17 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>166</v>
+        <v>428</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
@@ -7993,11 +8085,13 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>410</v>
+        <v>44</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -8015,13 +8109,13 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>168</v>
+        <v>429</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
@@ -8033,10 +8127,10 @@
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>169</v>
+        <v>430</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>170</v>
+        <v>431</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -8047,7 +8141,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8070,19 +8164,19 @@
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>54</v>
+        <v>289</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>172</v>
+        <v>433</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>173</v>
+        <v>434</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>174</v>
+        <v>435</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>175</v>
+        <v>436</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>44</v>
@@ -8131,7 +8225,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>176</v>
+        <v>437</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8149,10 +8243,10 @@
         <v>44</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>177</v>
+        <v>438</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>178</v>
+        <v>439</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
@@ -8163,18 +8257,20 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="C57" t="s" s="2">
-        <v>413</v>
+        <v>44</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>44</v>
@@ -8186,18 +8282,20 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>414</v>
+        <v>162</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>416</v>
+        <v>164</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
       </c>
@@ -8221,13 +8319,11 @@
         <v>44</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>44</v>
+        <v>442</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>44</v>
@@ -8245,7 +8341,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>412</v>
+        <v>168</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8260,16 +8356,16 @@
         <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>418</v>
+        <v>44</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>419</v>
+        <v>169</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>420</v>
+        <v>170</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
@@ -8277,7 +8373,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8288,7 +8384,7 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>44</v>
@@ -8297,16 +8393,16 @@
         <v>44</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>422</v>
+        <v>131</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>423</v>
+        <v>132</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8333,13 +8429,13 @@
         <v>44</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>424</v>
+        <v>44</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>425</v>
+        <v>44</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>44</v>
@@ -8357,19 +8453,19 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>421</v>
+        <v>133</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>44</v>
@@ -8378,10 +8474,10 @@
         <v>44</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>426</v>
+        <v>134</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
@@ -8389,11 +8485,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8409,18 +8505,20 @@
         <v>44</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>428</v>
+        <v>97</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>422</v>
+        <v>136</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
@@ -8457,19 +8555,19 @@
         <v>44</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>427</v>
+        <v>139</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8481,7 +8579,7 @@
         <v>44</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>44</v>
@@ -8490,10 +8588,10 @@
         <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>430</v>
+        <v>134</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8501,7 +8599,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8509,10 +8607,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>44</v>
@@ -8524,24 +8622,26 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>44</v>
+        <v>443</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>44</v>
@@ -8559,13 +8659,13 @@
         <v>44</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>435</v>
+        <v>44</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>436</v>
+        <v>44</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
@@ -8583,13 +8683,13 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>44</v>
@@ -8598,16 +8698,16 @@
         <v>64</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>437</v>
+        <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>440</v>
+        <v>44</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -8615,7 +8715,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8626,7 +8726,7 @@
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>44</v>
@@ -8638,16 +8738,16 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>442</v>
+        <v>54</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8697,13 +8797,13 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>44</v>
@@ -8712,16 +8812,16 @@
         <v>64</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>440</v>
+        <v>44</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
@@ -8729,7 +8829,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8740,7 +8840,7 @@
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>44</v>
@@ -8749,19 +8849,21 @@
         <v>44</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>450</v>
+        <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>44</v>
       </c>
@@ -8809,13 +8911,13 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>44</v>
@@ -8824,13 +8926,13 @@
         <v>64</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>453</v>
+        <v>44</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
@@ -8841,18 +8943,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>457</v>
+        <v>44</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>44</v>
@@ -8861,21 +8963,21 @@
         <v>44</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>458</v>
+        <v>54</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
@@ -8923,13 +9025,13 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>44</v>
@@ -8938,13 +9040,13 @@
         <v>64</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>462</v>
+        <v>44</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -8955,7 +9057,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8966,7 +9068,7 @@
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>44</v>
@@ -8978,18 +9080,20 @@
         <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>466</v>
+        <v>289</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>44</v>
       </c>
@@ -9037,13 +9141,13 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
@@ -9055,10 +9159,10 @@
         <v>44</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
@@ -9069,18 +9173,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>473</v>
+        <v>44</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>44</v>
@@ -9092,19 +9196,19 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>474</v>
+        <v>172</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>475</v>
+        <v>173</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>476</v>
+        <v>174</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>477</v>
+        <v>175</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
@@ -9129,13 +9233,13 @@
         <v>44</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>478</v>
+        <v>44</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>479</v>
+        <v>44</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>44</v>
@@ -9153,13 +9257,13 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>472</v>
+        <v>176</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>44</v>
@@ -9171,25 +9275,25 @@
         <v>44</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>470</v>
+        <v>177</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>480</v>
+        <v>178</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>481</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>482</v>
+        <v>445</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>44</v>
+        <v>446</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9205,18 +9309,20 @@
         <v>44</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>12</v>
+        <v>448</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>44</v>
@@ -9265,7 +9371,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>482</v>
+        <v>445</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9280,24 +9386,24 @@
         <v>64</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>325</v>
+        <v>452</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>44</v>
+        <v>392</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>487</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9308,7 +9414,7 @@
         <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>44</v>
@@ -9320,13 +9426,13 @@
         <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9353,13 +9459,13 @@
         <v>44</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>44</v>
+        <v>457</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>44</v>
+        <v>458</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>44</v>
@@ -9377,13 +9483,13 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>44</v>
@@ -9395,13 +9501,13 @@
         <v>44</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>325</v>
+        <v>44</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>44</v>
+        <v>392</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>44</v>
@@ -9409,7 +9515,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9429,20 +9535,18 @@
         <v>44</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>494</v>
+        <v>455</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>44</v>
@@ -9491,7 +9595,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9506,23 +9610,1045 @@
         <v>64</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AK68" t="s" s="2">
+      <c r="AM72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AL68" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN68" t="s" s="2">
+      <c r="AL77" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN68">
+  <autoFilter ref="A1:AN77">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9532,7 +10658,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
+  <conditionalFormatting sqref="A2:AI76">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/servicerequest-imag-report-1.xlsx
+++ b/output/DiagnosticReport/servicerequest-imag-report-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$68</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="499">
   <si>
     <t>Path</t>
   </si>
@@ -979,6 +979,31 @@
     <t>Procedure.procedureCode</t>
   </si>
   <si>
+    <t>ServiceRequest.code.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding</t>
+  </si>
+  <si>
+    <t>value:system}
+value:code}</t>
+  </si>
+  <si>
+    <t>snomedImagingProcedure</t>
+  </si>
+  <si>
+    <t>Imaging Procedure (SNOMED CT)</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.text</t>
+  </si>
+  <si>
     <t>ServiceRequest.orderDetail</t>
   </si>
   <si>
@@ -1267,126 +1292,6 @@
     <t>https://healthterminologies.gov.au/fhir/ValueSet/anzsco-1</t>
   </si>
   <si>
-    <t>ServiceRequest.performerType.coding.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType.coding.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://www.abs.gov.au/ausstats/abs@.nsf/mf/1220.0</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType.coding.userSelected</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
     <t>snomedPerformerType</t>
   </si>
   <si>
@@ -1394,9 +1299,6 @@
   </si>
   <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/practitioner-role-1</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>ServiceRequest.performerType.text</t>
@@ -1822,7 +1724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN77"/>
+  <dimension ref="A1:AN68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1831,8 +1733,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.38671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="42.98046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -5989,14 +5891,14 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
@@ -6005,20 +5907,18 @@
         <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>311</v>
+        <v>131</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -6043,13 +5943,13 @@
         <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>314</v>
+        <v>44</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>315</v>
+        <v>44</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
@@ -6067,50 +5967,50 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>309</v>
+        <v>133</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>317</v>
+        <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>306</v>
+        <v>134</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>308</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>44</v>
@@ -6119,21 +6019,21 @@
         <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>319</v>
+        <v>97</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>320</v>
+        <v>136</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
@@ -6169,40 +6069,40 @@
         <v>44</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>318</v>
+        <v>139</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>317</v>
+        <v>44</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>323</v>
+        <v>134</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>44</v>
@@ -6211,9 +6111,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6221,13 +6121,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>44</v>
@@ -6236,16 +6136,20 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>325</v>
+        <v>162</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>326</v>
+        <v>163</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
       </c>
@@ -6281,25 +6185,23 @@
         <v>44</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>324</v>
+        <v>168</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>44</v>
@@ -6308,28 +6210,30 @@
         <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>329</v>
+        <v>169</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>330</v>
+        <v>170</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>331</v>
+        <v>44</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>332</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="C40" t="s" s="2">
-        <v>334</v>
+        <v>44</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6348,16 +6252,20 @@
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>335</v>
+        <v>162</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6381,13 +6289,11 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6405,13 +6311,13 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>333</v>
+        <v>168</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
@@ -6420,28 +6326,28 @@
         <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>338</v>
+        <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>339</v>
+        <v>169</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>341</v>
+        <v>44</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>342</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>344</v>
+        <v>44</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6460,16 +6366,20 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>345</v>
+        <v>54</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>346</v>
+        <v>172</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6517,7 +6427,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>343</v>
+        <v>176</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6532,35 +6442,35 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>348</v>
+        <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>349</v>
+        <v>177</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>350</v>
+        <v>178</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>351</v>
+        <v>44</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>352</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>44</v>
@@ -6572,15 +6482,17 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>354</v>
+        <v>151</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6608,10 +6520,10 @@
         <v>273</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
@@ -6629,16 +6541,16 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>64</v>
@@ -6647,35 +6559,35 @@
         <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>44</v>
+        <v>325</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>360</v>
+        <v>308</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>362</v>
+        <v>44</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>44</v>
@@ -6684,16 +6596,18 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
@@ -6741,7 +6655,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6756,28 +6670,28 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>366</v>
+        <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>369</v>
+        <v>44</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>370</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>372</v>
+        <v>44</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6796,17 +6710,15 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6855,10 +6767,10 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>52</v>
@@ -6870,28 +6782,28 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>381</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>341</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6910,17 +6822,15 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>151</v>
+        <v>343</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6945,13 +6855,13 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>387</v>
+        <v>44</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>388</v>
+        <v>44</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6969,7 +6879,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>382</v>
+        <v>341</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6984,28 +6894,28 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>389</v>
+        <v>346</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>390</v>
+        <v>347</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>44</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7021,16 +6931,16 @@
         <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>54</v>
+        <v>353</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>131</v>
+        <v>354</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>132</v>
+        <v>355</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7081,7 +6991,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7093,38 +7003,38 @@
         <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>44</v>
+        <v>357</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>134</v>
+        <v>358</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>44</v>
+        <v>359</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>44</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
@@ -7133,20 +7043,18 @@
         <v>44</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>97</v>
+        <v>362</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>136</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -7171,43 +7079,43 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>44</v>
+        <v>365</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>44</v>
+        <v>366</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>139</v>
+        <v>361</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>44</v>
@@ -7216,32 +7124,32 @@
         <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>134</v>
+        <v>367</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>44</v>
+        <v>368</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>44</v>
+        <v>370</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>44</v>
@@ -7250,20 +7158,16 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>162</v>
+        <v>371</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>163</v>
+        <v>372</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7299,23 +7203,25 @@
         <v>44</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AB48" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>168</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
@@ -7324,40 +7230,38 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>169</v>
+        <v>375</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>170</v>
+        <v>376</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>44</v>
+        <v>377</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>44</v>
+        <v>378</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>44</v>
+        <v>380</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>44</v>
@@ -7366,20 +7270,18 @@
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>162</v>
+        <v>381</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>164</v>
+        <v>383</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7403,11 +7305,13 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>399</v>
+        <v>44</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -7425,13 +7329,13 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>168</v>
+        <v>379</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
@@ -7440,28 +7344,28 @@
         <v>64</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>44</v>
+        <v>385</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>169</v>
+        <v>386</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>170</v>
+        <v>387</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>44</v>
+        <v>388</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>44</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>44</v>
+        <v>391</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7477,18 +7381,20 @@
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>131</v>
+        <v>392</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7513,13 +7419,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>44</v>
+        <v>395</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>44</v>
+        <v>396</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7537,7 +7443,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7549,19 +7455,19 @@
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>44</v>
+        <v>397</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>44</v>
+        <v>398</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>134</v>
+        <v>399</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7573,14 +7479,14 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
@@ -7592,17 +7498,15 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7639,31 +7543,31 @@
         <v>44</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>44</v>
@@ -7687,14 +7591,14 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>44</v>
@@ -7703,29 +7607,27 @@
         <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>403</v>
+        <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>404</v>
+        <v>137</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>407</v>
+        <v>44</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>44</v>
@@ -7755,40 +7657,40 @@
         <v>44</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>408</v>
+        <v>139</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>409</v>
+        <v>44</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>410</v>
+        <v>134</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
@@ -7799,7 +7701,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7810,7 +7712,7 @@
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7822,18 +7724,20 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>412</v>
+        <v>163</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>413</v>
+        <v>164</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>44</v>
       </c>
@@ -7869,25 +7773,23 @@
         <v>44</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>415</v>
+        <v>168</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
@@ -7899,10 +7801,10 @@
         <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>416</v>
+        <v>169</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>417</v>
+        <v>170</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -7913,9 +7815,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7936,17 +7840,19 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="N54" t="s" s="2">
-        <v>421</v>
+        <v>166</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
@@ -7971,13 +7877,11 @@
         <v>44</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -7995,13 +7899,13 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>422</v>
+        <v>168</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
@@ -8013,10 +7917,10 @@
         <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>423</v>
+        <v>169</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>424</v>
+        <v>170</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
@@ -8027,9 +7931,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="C55" t="s" s="2">
         <v>44</v>
       </c>
@@ -8050,17 +7956,19 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>428</v>
+        <v>166</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
@@ -8085,13 +7993,11 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>44</v>
+        <v>410</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -8109,13 +8015,13 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>429</v>
+        <v>168</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
@@ -8127,10 +8033,10 @@
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>430</v>
+        <v>169</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>431</v>
+        <v>170</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -8141,7 +8047,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8164,19 +8070,19 @@
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>289</v>
+        <v>54</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>433</v>
+        <v>172</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>434</v>
+        <v>173</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>435</v>
+        <v>174</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>436</v>
+        <v>175</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>44</v>
@@ -8225,7 +8131,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>437</v>
+        <v>176</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8243,10 +8149,10 @@
         <v>44</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>438</v>
+        <v>177</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>439</v>
+        <v>178</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
@@ -8257,20 +8163,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>44</v>
+        <v>413</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>44</v>
@@ -8282,20 +8186,18 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>162</v>
+        <v>414</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>164</v>
+        <v>416</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>44</v>
       </c>
@@ -8319,11 +8221,13 @@
         <v>44</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>442</v>
+        <v>44</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>44</v>
@@ -8341,7 +8245,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>168</v>
+        <v>412</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8356,16 +8260,16 @@
         <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>44</v>
+        <v>418</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>169</v>
+        <v>419</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>170</v>
+        <v>420</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
@@ -8373,7 +8277,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8384,7 +8288,7 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>44</v>
@@ -8393,16 +8297,16 @@
         <v>44</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>131</v>
+        <v>422</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>132</v>
+        <v>423</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8429,13 +8333,13 @@
         <v>44</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>44</v>
+        <v>424</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>44</v>
+        <v>425</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>44</v>
@@ -8453,19 +8357,19 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>133</v>
+        <v>421</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>44</v>
@@ -8474,10 +8378,10 @@
         <v>44</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>134</v>
+        <v>426</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
@@ -8485,11 +8389,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8505,20 +8409,18 @@
         <v>44</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>97</v>
+        <v>428</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>136</v>
+        <v>422</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
@@ -8555,19 +8457,19 @@
         <v>44</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>139</v>
+        <v>427</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8579,7 +8481,7 @@
         <v>44</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>44</v>
@@ -8588,10 +8490,10 @@
         <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>134</v>
+        <v>430</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8599,7 +8501,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8607,10 +8509,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>44</v>
@@ -8622,26 +8524,24 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>443</v>
+        <v>44</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>44</v>
@@ -8659,13 +8559,13 @@
         <v>44</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>44</v>
+        <v>435</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>44</v>
+        <v>436</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
@@ -8683,13 +8583,13 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>44</v>
@@ -8698,16 +8598,16 @@
         <v>64</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>44</v>
+        <v>437</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>44</v>
+        <v>440</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -8715,7 +8615,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8726,7 +8626,7 @@
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>44</v>
@@ -8738,16 +8638,16 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>54</v>
+        <v>442</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>412</v>
+        <v>443</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8797,13 +8697,13 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>44</v>
@@ -8812,16 +8712,16 @@
         <v>64</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>44</v>
+        <v>446</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>416</v>
+        <v>447</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>44</v>
+        <v>440</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
@@ -8829,7 +8729,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8840,7 +8740,7 @@
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>44</v>
@@ -8849,21 +8749,19 @@
         <v>44</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>72</v>
+        <v>450</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>421</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>44</v>
       </c>
@@ -8911,13 +8809,13 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>44</v>
@@ -8926,13 +8824,13 @@
         <v>64</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>44</v>
+        <v>453</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>423</v>
+        <v>454</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
@@ -8943,18 +8841,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>425</v>
+        <v>456</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>44</v>
+        <v>457</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>44</v>
@@ -8963,21 +8861,21 @@
         <v>44</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>54</v>
+        <v>458</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
@@ -9025,13 +8923,13 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>44</v>
@@ -9040,13 +8938,13 @@
         <v>64</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>44</v>
+        <v>462</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>430</v>
+        <v>463</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -9057,7 +8955,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>432</v>
+        <v>465</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9068,7 +8966,7 @@
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>44</v>
@@ -9080,20 +8978,18 @@
         <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>289</v>
+        <v>466</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>44</v>
       </c>
@@ -9141,13 +9037,13 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
@@ -9159,10 +9055,10 @@
         <v>44</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
@@ -9173,18 +9069,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>44</v>
+        <v>473</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>44</v>
@@ -9196,19 +9092,19 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>172</v>
+        <v>474</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>173</v>
+        <v>475</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>174</v>
+        <v>476</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>175</v>
+        <v>477</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
@@ -9233,13 +9129,13 @@
         <v>44</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>44</v>
+        <v>478</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>44</v>
+        <v>479</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>44</v>
@@ -9257,13 +9153,13 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>176</v>
+        <v>472</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>44</v>
@@ -9275,25 +9171,25 @@
         <v>44</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>177</v>
+        <v>470</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>178</v>
+        <v>480</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>44</v>
+        <v>481</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9309,20 +9205,18 @@
         <v>44</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>44</v>
@@ -9371,7 +9265,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9386,24 +9280,24 @@
         <v>64</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>452</v>
+        <v>325</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>453</v>
+        <v>486</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>44</v>
+        <v>487</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>488</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9414,7 +9308,7 @@
         <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>44</v>
@@ -9426,13 +9320,13 @@
         <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9459,13 +9353,13 @@
         <v>44</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>457</v>
+        <v>44</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>44</v>
@@ -9483,13 +9377,13 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>454</v>
+        <v>488</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>44</v>
@@ -9501,13 +9395,13 @@
         <v>44</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>44</v>
+        <v>325</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>44</v>
@@ -9515,7 +9409,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9535,18 +9429,20 @@
         <v>44</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>44</v>
@@ -9595,7 +9491,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9610,1045 +9506,23 @@
         <v>64</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>44</v>
+        <v>497</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>463</v>
+        <v>498</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN77" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN77">
+  <autoFilter ref="A1:AN68">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10658,7 +9532,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI67">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/servicerequest-imag-report-1.xlsx
+++ b/output/DiagnosticReport/servicerequest-imag-report-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="531">
   <si>
     <t>Path</t>
   </si>
@@ -958,10 +958,7 @@
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
-    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](valueset-diagnostic-requests.html).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1854,7 +1851,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="122.19921875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.17578125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -5929,13 +5926,11 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="X36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X36" s="2"/>
+      <c r="Y36" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -5968,28 +5963,28 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6011,13 +6006,13 @@
         <v>151</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6046,11 +6041,11 @@
         <v>273</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
       </c>
@@ -6067,7 +6062,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -6076,7 +6071,7 @@
         <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>64</v>
@@ -6085,21 +6080,21 @@
         <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6122,17 +6117,17 @@
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -6181,7 +6176,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6199,10 +6194,10 @@
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>44</v>
@@ -6213,7 +6208,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6236,13 +6231,13 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6293,7 +6288,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>52</v>
@@ -6308,28 +6303,28 @@
         <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>332</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6348,13 +6343,13 @@
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6405,7 +6400,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6420,28 +6415,28 @@
         <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>342</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6460,13 +6455,13 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6517,7 +6512,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6532,24 +6527,24 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>352</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6572,13 +6567,13 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6608,11 +6603,11 @@
         <v>273</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6629,7 +6624,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6650,22 +6645,22 @@
         <v>44</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6684,13 +6679,13 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6741,7 +6736,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6756,28 +6751,28 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>370</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6796,16 +6791,16 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6855,7 +6850,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6870,28 +6865,28 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6913,13 +6908,13 @@
         <v>151</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6948,11 +6943,11 @@
         <v>273</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
       </c>
@@ -6969,7 +6964,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6984,16 +6979,16 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -7001,7 +6996,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7113,7 +7108,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7227,7 +7222,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7299,7 +7294,7 @@
         <v>44</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
@@ -7341,10 +7336,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>44</v>
@@ -7369,7 +7364,7 @@
         <v>162</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>164</v>
@@ -7407,7 +7402,7 @@
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -7457,7 +7452,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7569,7 +7564,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7683,7 +7678,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7709,65 +7704,65 @@
         <v>66</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE52" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7785,10 +7780,10 @@
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
@@ -7799,7 +7794,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7825,13 +7820,13 @@
         <v>54</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7881,7 +7876,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7899,10 +7894,10 @@
         <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -7913,7 +7908,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7939,14 +7934,14 @@
         <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
@@ -7995,7 +7990,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -8013,10 +8008,10 @@
         <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
@@ -8027,7 +8022,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8053,14 +8048,14 @@
         <v>54</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
@@ -8109,7 +8104,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8127,10 +8122,10 @@
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -8141,7 +8136,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8167,16 +8162,16 @@
         <v>289</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>44</v>
@@ -8225,7 +8220,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8243,10 +8238,10 @@
         <v>44</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
@@ -8257,10 +8252,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>44</v>
@@ -8285,7 +8280,7 @@
         <v>162</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>164</v>
@@ -8323,7 +8318,7 @@
       </c>
       <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>44</v>
@@ -8373,7 +8368,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8485,7 +8480,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8599,7 +8594,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8625,23 +8620,23 @@
         <v>66</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>44</v>
@@ -8683,7 +8678,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8701,10 +8696,10 @@
         <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>44</v>
@@ -8715,7 +8710,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8741,13 +8736,13 @@
         <v>54</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8797,7 +8792,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8815,10 +8810,10 @@
         <v>44</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>44</v>
@@ -8829,7 +8824,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8855,14 +8850,14 @@
         <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>44</v>
@@ -8911,7 +8906,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8929,10 +8924,10 @@
         <v>44</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
@@ -8943,7 +8938,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8969,14 +8964,14 @@
         <v>54</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>44</v>
@@ -9025,7 +9020,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -9043,10 +9038,10 @@
         <v>44</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -9057,7 +9052,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9083,16 +9078,16 @@
         <v>289</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>44</v>
@@ -9141,7 +9136,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9159,10 +9154,10 @@
         <v>44</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
@@ -9173,7 +9168,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9289,11 +9284,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9312,16 +9307,16 @@
         <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9371,7 +9366,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9386,16 +9381,16 @@
         <v>64</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AK66" t="s" s="2">
+      <c r="AL66" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>453</v>
-      </c>
       <c r="AM66" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>44</v>
@@ -9403,7 +9398,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9429,10 +9424,10 @@
         <v>151</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9462,11 +9457,11 @@
         <v>273</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="Z67" t="s" s="2">
         <v>44</v>
       </c>
@@ -9483,7 +9478,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9504,10 +9499,10 @@
         <v>44</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>44</v>
@@ -9515,7 +9510,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9538,13 +9533,13 @@
         <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9595,7 +9590,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9616,10 +9611,10 @@
         <v>44</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>44</v>
@@ -9627,7 +9622,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9653,13 +9648,13 @@
         <v>151</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9688,11 +9683,11 @@
         <v>273</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="Y69" t="s" s="2">
-        <v>469</v>
-      </c>
       <c r="Z69" t="s" s="2">
         <v>44</v>
       </c>
@@ -9709,7 +9704,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9724,16 +9719,16 @@
         <v>64</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AK69" t="s" s="2">
+      <c r="AL69" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AM69" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>44</v>
@@ -9741,7 +9736,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9764,16 +9759,16 @@
         <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9823,7 +9818,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9838,16 +9833,16 @@
         <v>64</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AK70" t="s" s="2">
+      <c r="AL70" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AL70" t="s" s="2">
-        <v>481</v>
-      </c>
       <c r="AM70" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>44</v>
@@ -9855,7 +9850,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9878,13 +9873,13 @@
         <v>44</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9935,7 +9930,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9950,13 +9945,13 @@
         <v>64</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>44</v>
@@ -9967,11 +9962,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9990,16 +9985,16 @@
         <v>44</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10049,7 +10044,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -10064,13 +10059,13 @@
         <v>64</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="AK72" t="s" s="2">
+      <c r="AL72" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>44</v>
@@ -10081,7 +10076,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10104,16 +10099,16 @@
         <v>53</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10163,7 +10158,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10181,10 +10176,10 @@
         <v>44</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>44</v>
@@ -10195,11 +10190,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10221,16 +10216,16 @@
         <v>151</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>44</v>
@@ -10258,11 +10253,11 @@
         <v>273</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="Y74" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="Y74" t="s" s="2">
-        <v>512</v>
-      </c>
       <c r="Z74" t="s" s="2">
         <v>44</v>
       </c>
@@ -10279,7 +10274,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10297,21 +10292,21 @@
         <v>44</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>514</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10334,13 +10329,13 @@
         <v>44</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>12</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10391,7 +10386,7 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10406,24 +10401,24 @@
         <v>64</v>
       </c>
       <c r="AJ75" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AK75" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>520</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10449,10 +10444,10 @@
         <v>54</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10503,7 +10498,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10521,10 +10516,10 @@
         <v>44</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>44</v>
@@ -10535,7 +10530,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10558,16 +10553,16 @@
         <v>44</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10617,7 +10612,7 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10632,13 +10627,13 @@
         <v>64</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>44</v>

--- a/output/DiagnosticReport/servicerequest-imag-report-1.xlsx
+++ b/output/DiagnosticReport/servicerequest-imag-report-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="469">
   <si>
     <t>Path</t>
   </si>
@@ -386,142 +386,635 @@
     <t>ServiceRequest.identifier</t>
   </si>
   <si>
+    <t xml:space="preserve">Identifier {Identifier|http://hl7.org.au/fhir/StructureDefinition/au-localorderidentifier}
+</t>
+  </si>
+  <si>
+    <t>An identifier intended for computation</t>
+  </si>
+  <si>
+    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
+  </si>
+  <si>
+    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
+  </si>
+  <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
+</t>
+  </si>
+  <si>
+    <t>Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesUri</t>
+  </si>
+  <si>
+    <t>Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesUri</t>
+  </si>
+  <si>
+    <t>ServiceRequest.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
+</t>
+  </si>
+  <si>
+    <t>What request fulfills</t>
+  </si>
+  <si>
+    <t>Plan/proposal/order fulfilled by this request.</t>
+  </si>
+  <si>
+    <t>Request.basedOn</t>
+  </si>
+  <si>
+    <t>ORC.8 (plus others)</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.replaces</t>
+  </si>
+  <si>
+    <t>supersedes
+priorrenewed order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>What request replaces</t>
+  </si>
+  <si>
+    <t>The request takes the place of the referenced completed or terminated request(s).</t>
+  </si>
+  <si>
+    <t>Request.replaces</t>
+  </si>
+  <si>
+    <t>Handled by message location of ORC (ORC.1=RO or RU)</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RPLC].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.requisition</t>
+  </si>
+  <si>
+    <t>grouperId
+groupIdentifier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>Identifiers assigned to this order</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
-  </si>
-  <si>
-    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:type}
-</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.identifier</t>
-  </si>
-  <si>
-    <t>placerIdentifier</t>
-  </si>
-  <si>
-    <t>Placer identifier</t>
-  </si>
-  <si>
-    <t>The identifier associated with the person or service that requests or places an order.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>Composite Request ID</t>
+  </si>
+  <si>
+    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
+  </si>
+  <si>
+    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
+  </si>
+  <si>
+    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
+  </si>
+  <si>
+    <t>Request.groupIdentifier</t>
+  </si>
+  <si>
+    <t>ORC.4</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
+  </si>
+  <si>
+    <t>ServiceRequest.status</t>
+  </si>
+  <si>
+    <t>active | on-hold | completed</t>
+  </si>
+  <si>
+    <t>The status of the order.</t>
+  </si>
+  <si>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/requeststatus-reporting-1</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>ORC.5,RF1-1</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Action.currentStatus</t>
+  </si>
+  <si>
+    <t>ServiceRequest.intent</t>
+  </si>
+  <si>
+    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
+  </si>
+  <si>
+    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>The kind of service request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>http://hl7.org.au/fhir/ValueSet/au-hl7v2-0203</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type.coding</t>
+    <t>Classification of service</t>
+  </si>
+  <si>
+    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+  </si>
+  <si>
+    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what service request are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Classification of the requested service.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
+  </si>
+  <si>
+    <t>RF1-5</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="INT"].code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
+  </si>
+  <si>
+    <t>If missing, this task should be performed with normal priority</t>
+  </si>
+  <si>
+    <t>Identifies the level of importance to be assigned to actioning the request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.priority</t>
+  </si>
+  <si>
+    <t>TQ1.9, RF1-2</t>
+  </si>
+  <si>
+    <t>.priorityCode</t>
+  </si>
+  <si>
+    <t>FiveWs.grade</t>
+  </si>
+  <si>
+    <t>ServiceRequest.doNotPerform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if service/procedure should not be performed</t>
+  </si>
+  <si>
+    <t>Set this to true if the record is saying that the service/procedure should NOT be performed.</t>
+  </si>
+  <si>
+    <t>In general, only the code and timeframe will be present, though occasional additional qualifiers such as body site or even performer could be included to narrow the scope of the prohibition.  If the ServiceRequest.code and ServiceRequest.doNotPerform both contain negation, that will reinforce prohibition and should not have a double negative interpretation.</t>
+  </si>
+  <si>
+    <t>Used for do not ambulate, do not elevate head of bed, do not flush NG tube, do not take blood pressure on a certain arm, etc.</t>
+  </si>
+  <si>
+    <t>If missing, the request is a positive request e.g. "do perform"</t>
+  </si>
+  <si>
+    <t>Request.doNotPerform</t>
+  </si>
+  <si>
+    <t>.actionNegationInd</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service requested
+</t>
+  </si>
+  <si>
+    <t>What is being requested/ordered</t>
+  </si>
+  <si>
+    <t>A code that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
+  </si>
+  <si>
+    <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
+  </si>
+  <si>
+    <t>Request.code</t>
+  </si>
+  <si>
+    <t>PR1-3 / OBR-4  (varies by domain)</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>Procedure.procedureCode</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detailed instructions
+</t>
+  </si>
+  <si>
+    <t>Additional order information</t>
+  </si>
+  <si>
+    <t>Additional details and instructions about the how the services are to be delivered.   For example, and order for a urinary catheter may have an order detail for an external or indwelling catheter, or an order for a bandage may require additional instructions specifying how the bandage should be applied.</t>
+  </si>
+  <si>
+    <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
+  </si>
+  <si>
+    <t>Codified order entry details which are based on order context.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prr-1
+</t>
+  </si>
+  <si>
+    <t>NTE</t>
+  </si>
+  <si>
+    <t>ServiceRequest.quantity[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+RatioRange</t>
+  </si>
+  <si>
+    <t>Service amount</t>
+  </si>
+  <si>
+    <t>An amount of service being requested which can be a quantity ( for example $1,500 home modification), a ratio ( for example, 20 half day visits per month), or a range (2.0 to 1.8 Gy per fraction).</t>
+  </si>
+  <si>
+    <t>When ordering a service the number of service items may need to be specified separately from the the service item.</t>
+  </si>
+  <si>
+    <t>.quantity</t>
+  </si>
+  <si>
+    <t>ServiceRequest.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-ident-1)
+</t>
+  </si>
+  <si>
+    <t>Individual or Entity the service is ordered for</t>
+  </si>
+  <si>
+    <t>On whom or what the service is to be performed. This is usually a human patient, but can also be requested on animals, groups of humans or animals, devices such as dialysis machines, or even locations (typically for environmental scans).</t>
+  </si>
+  <si>
+    <t>Request.subject</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.subject</t>
+  </si>
+  <si>
+    <t>ServiceRequest.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter in which the request was created</t>
+  </si>
+  <si>
+    <t>An encounter that provides additional information about the healthcare context in which this request is made.</t>
+  </si>
+  <si>
+    <t>Request.encounter</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=COMP].source[classCode&lt;=PCPR, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.encounter</t>
+  </si>
+  <si>
+    <t>ServiceRequest.occurrence[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule
+</t>
+  </si>
+  <si>
+    <t>dateTime
+PeriodTiming</t>
+  </si>
+  <si>
+    <t>When service should occur</t>
+  </si>
+  <si>
+    <t>The date/time at which the requested service should occur.</t>
+  </si>
+  <si>
+    <t>Request.occurrence[x]</t>
+  </si>
+  <si>
+    <t>TQ1/TQ2, OBR-7/OBR-8</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.planned</t>
+  </si>
+  <si>
+    <t>Procedure.procedureSchedule</t>
+  </si>
+  <si>
+    <t>ServiceRequest.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>boolean
+CodeableConcept</t>
+  </si>
+  <si>
+    <t>Preconditions for service</t>
+  </si>
+  <si>
+    <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+  </si>
+  <si>
+    <t>boolean: precondition.negationInd (inversed - so negationInd = true means asNeeded=false CodeableConcept: precondition.observationEventCriterion[code="Assertion"].value</t>
+  </si>
+  <si>
+    <t>Proposal.prnReason.reason</t>
+  </si>
+  <si>
+    <t>ServiceRequest.authoredOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedOn
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date request signed</t>
+  </si>
+  <si>
+    <t>When the request transitioned to being actionable.</t>
+  </si>
+  <si>
+    <t>Request.authoredOn</t>
+  </si>
+  <si>
+    <t>ORC.9,  RF1-7 / RF1-9</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Proposal.proposedAtTime</t>
+  </si>
+  <si>
+    <t>ServiceRequest.requester</t>
+  </si>
+  <si>
+    <t>author
+orderer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-ident-1)
+</t>
+  </si>
+  <si>
+    <t>Authorising healthcare provider or organisation / program</t>
+  </si>
+  <si>
+    <t>The individual who initiated the request and has responsibility for its activation.</t>
+  </si>
+  <si>
+    <t>This not the dispatcher, but rather who is the authorizer.  This element is not intended to handle delegation which would generally be managed through the Provenance resource.</t>
+  </si>
+  <si>
+    <t>Request.requester</t>
+  </si>
+  <si>
+    <t>ORC.12, PRT</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.statementAuthor</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specialty
+</t>
+  </si>
+  <si>
+    <t>Performer role</t>
+  </si>
+  <si>
+    <t>Desired type of performer for doing the requested service.</t>
+  </si>
+  <si>
+    <t>This is a  role, not  a participation type.  In other words, does not describe the task but describes the capacity.  For example, “compounding pharmacy”, “psychiatrist” or “internal referral”.</t>
+  </si>
+  <si>
+    <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+  </si>
+  <si>
+    <t>Request.performerType</t>
+  </si>
+  <si>
+    <t>PRT, RF!-3</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF].role[scoper.determinerCode=KIND].code</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -540,721 +1033,19 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
-  &lt;code value="PLAC"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.system</t>
-  </si>
-  <si>
-    <t>Placer identifier system namespace</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.value</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>ServiceRequest.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
-</t>
-  </si>
-  <si>
-    <t>Instantiates FHIR protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
-  </si>
-  <si>
-    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.instantiatesUri</t>
-  </si>
-  <si>
-    <t>Instantiates external protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
-  </si>
-  <si>
-    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesUri</t>
-  </si>
-  <si>
-    <t>ServiceRequest.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
-</t>
-  </si>
-  <si>
-    <t>What request fulfills</t>
-  </si>
-  <si>
-    <t>Plan/proposal/order fulfilled by this request.</t>
-  </si>
-  <si>
-    <t>Request.basedOn</t>
-  </si>
-  <si>
-    <t>ORC.8 (plus others)</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.replaces</t>
-  </si>
-  <si>
-    <t>supersedes
-priorrenewed order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>What request replaces</t>
-  </si>
-  <si>
-    <t>The request takes the place of the referenced completed or terminated request(s).</t>
-  </si>
-  <si>
-    <t>Request.replaces</t>
-  </si>
-  <si>
-    <t>Handled by message location of ORC (ORC.1=RO or RU)</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RPLC].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.requisition</t>
-  </si>
-  <si>
-    <t>grouperId
-groupIdentifier</t>
-  </si>
-  <si>
-    <t>Composite Request ID</t>
-  </si>
-  <si>
-    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
-  </si>
-  <si>
-    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
-  </si>
-  <si>
-    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
-  </si>
-  <si>
-    <t>Request.groupIdentifier</t>
-  </si>
-  <si>
-    <t>ORC.4</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
-  </si>
-  <si>
-    <t>ServiceRequest.status</t>
-  </si>
-  <si>
-    <t>active | on-hold | completed</t>
-  </si>
-  <si>
-    <t>The status of the order.</t>
-  </si>
-  <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/requeststatus-reporting-1</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>ORC.5,RF1-1</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Action.currentStatus</t>
-  </si>
-  <si>
-    <t>ServiceRequest.intent</t>
-  </si>
-  <si>
-    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
-  </si>
-  <si>
-    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>The kind of service request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category</t>
-  </si>
-  <si>
-    <t>Classification of service</t>
-  </si>
-  <si>
-    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
-  </si>
-  <si>
-    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what service request are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Classification of the requested service.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
-  </si>
-  <si>
-    <t>RF1-5</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="INT"].code</t>
-  </si>
-  <si>
-    <t>ServiceRequest.priority</t>
-  </si>
-  <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
-  </si>
-  <si>
-    <t>If missing, this task should be performed with normal priority</t>
-  </si>
-  <si>
-    <t>Identifies the level of importance to be assigned to actioning the request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.priority</t>
-  </si>
-  <si>
-    <t>TQ1.9, RF1-2</t>
-  </si>
-  <si>
-    <t>.priorityCode</t>
-  </si>
-  <si>
-    <t>FiveWs.grade</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>True if service/procedure should not be performed</t>
-  </si>
-  <si>
-    <t>Set this to true if the record is saying that the service/procedure should NOT be performed.</t>
-  </si>
-  <si>
-    <t>In general, only the code and timeframe will be present, though occasional additional qualifiers such as body site or even performer could be included to narrow the scope of the prohibition.  If the ServiceRequest.code and ServiceRequest.doNotPerform both contain negation, that will reinforce prohibition and should not have a double negative interpretation.</t>
-  </si>
-  <si>
-    <t>Used for do not ambulate, do not elevate head of bed, do not flush NG tube, do not take blood pressure on a certain arm, etc.</t>
-  </si>
-  <si>
-    <t>If missing, the request is a positive request e.g. "do perform"</t>
-  </si>
-  <si>
-    <t>Request.doNotPerform</t>
-  </si>
-  <si>
-    <t>.actionNegationInd</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service requested
-</t>
-  </si>
-  <si>
-    <t>What is being requested/ordered</t>
-  </si>
-  <si>
-    <t>A code that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
-  </si>
-  <si>
-    <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
-  </si>
-  <si>
-    <t>Request.code</t>
-  </si>
-  <si>
-    <t>PR1-3 / OBR-4  (varies by domain)</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>Procedure.procedureCode</t>
-  </si>
-  <si>
-    <t>ServiceRequest.orderDetail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detailed instructions
-</t>
-  </si>
-  <si>
-    <t>Additional order information</t>
-  </si>
-  <si>
-    <t>Additional details and instructions about the how the services are to be delivered.   For example, and order for a urinary catheter may have an order detail for an external or indwelling catheter, or an order for a bandage may require additional instructions specifying how the bandage should be applied.</t>
-  </si>
-  <si>
-    <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
-  </si>
-  <si>
-    <t>Codified order entry details which are based on order context.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prr-1
-</t>
-  </si>
-  <si>
-    <t>NTE</t>
-  </si>
-  <si>
-    <t>ServiceRequest.quantity[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-RatioRange</t>
-  </si>
-  <si>
-    <t>Service amount</t>
-  </si>
-  <si>
-    <t>An amount of service being requested which can be a quantity ( for example $1,500 home modification), a ratio ( for example, 20 half day visits per month), or a range (2.0 to 1.8 Gy per fraction).</t>
-  </si>
-  <si>
-    <t>When ordering a service the number of service items may need to be specified separately from the the service item.</t>
-  </si>
-  <si>
-    <t>.quantity</t>
-  </si>
-  <si>
-    <t>ServiceRequest.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-ident-1)
-</t>
-  </si>
-  <si>
-    <t>Individual or Entity the service is ordered for</t>
-  </si>
-  <si>
-    <t>On whom or what the service is to be performed. This is usually a human patient, but can also be requested on animals, groups of humans or animals, devices such as dialysis machines, or even locations (typically for environmental scans).</t>
-  </si>
-  <si>
-    <t>Request.subject</t>
-  </si>
-  <si>
-    <t>PID</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.subject</t>
-  </si>
-  <si>
-    <t>ServiceRequest.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">context
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter in which the request was created</t>
-  </si>
-  <si>
-    <t>An encounter that provides additional information about the healthcare context in which this request is made.</t>
-  </si>
-  <si>
-    <t>Request.encounter</t>
-  </si>
-  <si>
-    <t>PV1</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=COMP].source[classCode&lt;=PCPR, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.encounter</t>
-  </si>
-  <si>
-    <t>ServiceRequest.occurrence[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schedule
-</t>
-  </si>
-  <si>
-    <t>dateTime
-PeriodTiming</t>
-  </si>
-  <si>
-    <t>When service should occur</t>
-  </si>
-  <si>
-    <t>The date/time at which the requested service should occur.</t>
-  </si>
-  <si>
-    <t>Request.occurrence[x]</t>
-  </si>
-  <si>
-    <t>TQ1/TQ2, OBR-7/OBR-8</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.planned</t>
-  </si>
-  <si>
-    <t>Procedure.procedureSchedule</t>
-  </si>
-  <si>
-    <t>ServiceRequest.asNeeded[x]</t>
-  </si>
-  <si>
-    <t>boolean
-CodeableConcept</t>
-  </si>
-  <si>
-    <t>Preconditions for service</t>
-  </si>
-  <si>
-    <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
-  </si>
-  <si>
-    <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
-  </si>
-  <si>
-    <t>boolean: precondition.negationInd (inversed - so negationInd = true means asNeeded=false CodeableConcept: precondition.observationEventCriterion[code="Assertion"].value</t>
-  </si>
-  <si>
-    <t>Proposal.prnReason.reason</t>
-  </si>
-  <si>
-    <t>ServiceRequest.authoredOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orderedOn
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Date request signed</t>
-  </si>
-  <si>
-    <t>When the request transitioned to being actionable.</t>
-  </si>
-  <si>
-    <t>Request.authoredOn</t>
-  </si>
-  <si>
-    <t>ORC.9,  RF1-7 / RF1-9</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Proposal.proposedAtTime</t>
-  </si>
-  <si>
-    <t>ServiceRequest.requester</t>
-  </si>
-  <si>
-    <t>author
-orderer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-ident-1)
-</t>
-  </si>
-  <si>
-    <t>Authorising healthcare provider or organisation / program</t>
-  </si>
-  <si>
-    <t>The individual who initiated the request and has responsibility for its activation.</t>
-  </si>
-  <si>
-    <t>This not the dispatcher, but rather who is the authorizer.  This element is not intended to handle delegation which would generally be managed through the Provenance resource.</t>
-  </si>
-  <si>
-    <t>Request.requester</t>
-  </si>
-  <si>
-    <t>ORC.12, PRT</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.statementAuthor</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specialty
-</t>
-  </si>
-  <si>
-    <t>Performer role</t>
-  </si>
-  <si>
-    <t>Desired type of performer for doing the requested service.</t>
-  </si>
-  <si>
-    <t>This is a  role, not  a participation type.  In other words, does not describe the task but describes the capacity.  For example, “compounding pharmacy”, “psychiatrist” or “internal referral”.</t>
-  </si>
-  <si>
-    <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
-  </si>
-  <si>
-    <t>Request.performerType</t>
-  </si>
-  <si>
-    <t>PRT, RF!-3</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF].role[scoper.determinerCode=KIND].code</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType.coding</t>
-  </si>
-  <si>
     <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
     <t>anzscoPerformerType</t>
   </si>
   <si>
@@ -1397,6 +1188,27 @@
   </si>
   <si>
     <t>ServiceRequest.performerType.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>ServiceRequest.performer</t>
@@ -1471,10 +1283,7 @@
     <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
-    <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/reason-for-request-1</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1819,7 +1628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN77"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3126,7 +2935,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>116</v>
       </c>
@@ -3148,7 +2957,7 @@
         <v>44</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>117</v>
@@ -3198,14 +3007,16 @@
         <v>44</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AB12" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>116</v>
@@ -3217,34 +3028,32 @@
         <v>43</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="AK12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AM12" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>126</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>44</v>
       </c>
@@ -3265,16 +3074,16 @@
         <v>53</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3324,7 +3133,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -3339,24 +3148,24 @@
         <v>64</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>126</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3367,7 +3176,7 @@
         <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>44</v>
@@ -3376,18 +3185,20 @@
         <v>44</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>44</v>
@@ -3436,28 +3247,28 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>44</v>
@@ -3468,11 +3279,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3488,20 +3299,18 @@
         <v>44</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>44</v>
@@ -3538,19 +3347,19 @@
         <v>44</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3562,16 +3371,16 @@
         <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>44</v>
@@ -3582,43 +3391,39 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>44</v>
       </c>
@@ -3642,13 +3447,13 @@
         <v>44</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>44</v>
@@ -3666,13 +3471,13 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>44</v>
@@ -3681,13 +3486,13 @@
         <v>64</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>44</v>
@@ -3698,15 +3503,15 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>52</v>
@@ -3721,19 +3526,19 @@
         <v>53</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3758,11 +3563,13 @@
         <v>44</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>44</v>
@@ -3780,7 +3587,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3795,13 +3602,13 @@
         <v>64</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>44</v>
@@ -3810,9 +3617,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3820,30 +3627,32 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>44</v>
@@ -3868,13 +3677,11 @@
         <v>44</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>44</v>
@@ -3892,10 +3699,10 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>52</v>
@@ -3904,59 +3711,59 @@
         <v>44</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3964,7 +3771,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>44</v>
@@ -3982,63 +3789,63 @@
         <v>44</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4049,10 +3856,10 @@
         <v>52</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>44</v>
@@ -4061,19 +3868,19 @@
         <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -4083,7 +3890,7 @@
         <v>44</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>44</v>
@@ -4098,13 +3905,13 @@
         <v>44</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>44</v>
@@ -4122,7 +3929,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -4140,13 +3947,13 @@
         <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>44</v>
@@ -4154,7 +3961,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4177,24 +3984,22 @@
         <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="Q21" t="s" s="2">
         <v>44</v>
       </c>
@@ -4214,13 +4019,13 @@
         <v>44</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>44</v>
@@ -4238,7 +4043,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -4253,16 +4058,16 @@
         <v>64</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>44</v>
@@ -4270,7 +4075,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4278,7 +4083,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>52</v>
@@ -4287,30 +4092,32 @@
         <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="Q22" t="s" s="2">
         <v>44</v>
       </c>
@@ -4318,7 +4125,7 @@
         <v>44</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>44</v>
@@ -4354,7 +4161,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4369,13 +4176,13 @@
         <v>64</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>44</v>
@@ -4384,23 +4191,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>44</v>
+        <v>214</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>44</v>
@@ -4409,16 +4216,16 @@
         <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4432,7 +4239,7 @@
         <v>44</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>44</v>
@@ -4444,13 +4251,11 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
@@ -4468,7 +4273,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4483,35 +4288,35 @@
         <v>64</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>44</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>44</v>
+        <v>225</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>44</v>
@@ -4523,15 +4328,17 @@
         <v>53</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -4556,13 +4363,13 @@
         <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>44</v>
@@ -4580,16 +4387,16 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>64</v>
@@ -4598,21 +4405,21 @@
         <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>44</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4635,18 +4442,18 @@
         <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
       </c>
@@ -4694,7 +4501,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4712,10 +4519,10 @@
         <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>44</v>
@@ -4724,9 +4531,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4734,13 +4541,13 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>44</v>
@@ -4749,17 +4556,15 @@
         <v>53</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4808,13 +4613,13 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
@@ -4823,35 +4628,35 @@
         <v>64</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>44</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>44</v>
@@ -4863,17 +4668,15 @@
         <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4922,13 +4725,13 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>44</v>
@@ -4937,35 +4740,35 @@
         <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>44</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>44</v>
@@ -4977,13 +4780,13 @@
         <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5034,13 +4837,13 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>44</v>
@@ -5049,35 +4852,35 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>44</v>
+        <v>266</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>44</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>232</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>44</v>
@@ -5089,13 +4892,13 @@
         <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5122,13 +4925,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -5146,13 +4949,13 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
@@ -5161,38 +4964,38 @@
         <v>64</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>44</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>44</v>
@@ -5201,20 +5004,16 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>117</v>
+        <v>278</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>44</v>
       </c>
@@ -5262,7 +5061,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5277,28 +5076,28 @@
         <v>64</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>44</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5311,22 +5110,22 @@
         <v>53</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5352,11 +5151,13 @@
         <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>252</v>
+        <v>44</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
@@ -5374,10 +5175,10 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>52</v>
@@ -5389,56 +5190,56 @@
         <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>257</v>
+        <v>296</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5446,7 +5247,7 @@
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>44</v>
@@ -5464,13 +5265,13 @@
         <v>44</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>44</v>
@@ -5488,10 +5289,10 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>52</v>
@@ -5503,24 +5304,24 @@
         <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>95</v>
+        <v>305</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5528,35 +5329,31 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F33" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="G33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>44</v>
       </c>
@@ -5580,13 +5377,13 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>274</v>
+        <v>44</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5604,31 +5401,31 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>276</v>
+        <v>44</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5636,18 +5433,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>44</v>
@@ -5656,25 +5453,25 @@
         <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P34" t="s" s="2">
-        <v>281</v>
-      </c>
+      <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5694,55 +5491,55 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>282</v>
+        <v>44</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>287</v>
+        <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5750,7 +5547,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5761,38 +5558,36 @@
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P35" t="s" s="2">
-        <v>294</v>
-      </c>
+      <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5824,25 +5619,23 @@
         <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>44</v>
@@ -5851,13 +5644,13 @@
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>44</v>
+        <v>326</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>44</v>
@@ -5866,13 +5659,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="C36" t="s" s="2">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5882,7 +5677,7 @@
         <v>52</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>44</v>
@@ -5891,18 +5686,20 @@
         <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>151</v>
+        <v>319</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
       </c>
@@ -5926,11 +5723,11 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -5948,13 +5745,13 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>44</v>
@@ -5963,35 +5760,35 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>303</v>
+        <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>306</v>
+        <v>44</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>307</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>309</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
@@ -6000,20 +5797,18 @@
         <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>312</v>
-      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -6038,13 +5833,13 @@
         <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>314</v>
+        <v>44</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
@@ -6062,50 +5857,50 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>315</v>
+        <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>307</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>44</v>
@@ -6114,21 +5909,21 @@
         <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>318</v>
+        <v>97</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
@@ -6164,16 +5959,16 @@
         <v>44</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>317</v>
@@ -6182,22 +5977,22 @@
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>44</v>
@@ -6206,9 +6001,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6222,7 +6017,7 @@
         <v>52</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>44</v>
@@ -6231,22 +6026,26 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>324</v>
+        <v>66</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>44</v>
+        <v>338</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>44</v>
@@ -6288,10 +6087,10 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>52</v>
@@ -6303,28 +6102,28 @@
         <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>330</v>
+        <v>44</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>331</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>333</v>
+        <v>44</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6343,15 +6142,17 @@
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>334</v>
+        <v>54</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -6400,7 +6201,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6415,28 +6216,28 @@
         <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>337</v>
+        <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>341</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>343</v>
+        <v>44</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6455,16 +6256,18 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>344</v>
+        <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6512,7 +6315,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6527,24 +6330,24 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>347</v>
+        <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>350</v>
+        <v>44</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>351</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6567,16 +6370,18 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>353</v>
+        <v>54</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6600,13 +6405,13 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>356</v>
+        <v>44</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>357</v>
+        <v>44</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
@@ -6624,7 +6429,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6642,35 +6447,35 @@
         <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>44</v>
+        <v>361</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>359</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>361</v>
+        <v>44</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>44</v>
@@ -6679,16 +6484,20 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>362</v>
+        <v>205</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
@@ -6736,7 +6545,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6751,38 +6560,40 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>365</v>
+        <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>368</v>
+        <v>44</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>369</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="C44" t="s" s="2">
-        <v>371</v>
+        <v>44</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>44</v>
@@ -6791,18 +6602,20 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="K44" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="L44" t="s" s="2">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6826,13 +6639,11 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>44</v>
+        <v>373</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
@@ -6850,13 +6661,13 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>44</v>
@@ -6865,28 +6676,28 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>376</v>
+        <v>44</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>379</v>
+        <v>44</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>380</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>382</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6902,20 +6713,18 @@
         <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>383</v>
+        <v>309</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6940,13 +6749,13 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>386</v>
+        <v>44</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>387</v>
+        <v>44</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6964,7 +6773,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>381</v>
+        <v>311</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6976,19 +6785,19 @@
         <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>388</v>
+        <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>389</v>
+        <v>44</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>390</v>
+        <v>312</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>391</v>
+        <v>44</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6996,18 +6805,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>392</v>
+        <v>332</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
@@ -7019,15 +6828,17 @@
         <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>131</v>
+        <v>314</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -7064,31 +6875,31 @@
         <v>44</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>133</v>
+        <v>317</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>44</v>
@@ -7097,7 +6908,7 @@
         <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>134</v>
+        <v>312</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -7108,18 +6919,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>393</v>
+        <v>333</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
@@ -7128,27 +6939,29 @@
         <v>44</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>136</v>
+        <v>334</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>137</v>
+        <v>335</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>44</v>
@@ -7178,40 +6991,40 @@
         <v>44</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>139</v>
+        <v>339</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>44</v>
+        <v>340</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>134</v>
+        <v>341</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>44</v>
@@ -7222,7 +7035,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7233,7 +7046,7 @@
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>44</v>
@@ -7245,20 +7058,18 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>163</v>
+        <v>343</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>164</v>
+        <v>344</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7294,23 +7105,25 @@
         <v>44</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AB48" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
@@ -7322,10 +7135,10 @@
         <v>44</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>169</v>
+        <v>347</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>170</v>
+        <v>348</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>44</v>
@@ -7336,11 +7149,9 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7361,19 +7172,17 @@
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>166</v>
+        <v>352</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>44</v>
@@ -7398,11 +7207,13 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>398</v>
+        <v>44</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -7420,13 +7231,13 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>168</v>
+        <v>353</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
@@ -7438,10 +7249,10 @@
         <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>169</v>
+        <v>354</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>44</v>
@@ -7452,7 +7263,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7472,19 +7283,21 @@
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>131</v>
+        <v>357</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>132</v>
+        <v>358</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7532,7 +7345,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>133</v>
+        <v>360</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7544,16 +7357,16 @@
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>44</v>
+        <v>361</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>134</v>
+        <v>362</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>44</v>
@@ -7564,18 +7377,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
@@ -7584,21 +7397,23 @@
         <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>136</v>
+        <v>364</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>137</v>
+        <v>365</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>44</v>
       </c>
@@ -7634,40 +7449,40 @@
         <v>44</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>139</v>
+        <v>368</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>44</v>
+        <v>369</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>134</v>
+        <v>370</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>44</v>
@@ -7678,7 +7493,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7686,7 +7501,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>52</v>
@@ -7701,26 +7516,26 @@
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>406</v>
+        <v>44</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>44</v>
@@ -7762,7 +7577,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7780,10 +7595,10 @@
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
@@ -7794,18 +7609,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>44</v>
+        <v>384</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7817,16 +7632,16 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>54</v>
+        <v>385</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7876,13 +7691,13 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
@@ -7891,16 +7706,16 @@
         <v>64</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>44</v>
+        <v>389</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -7908,7 +7723,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7919,7 +7734,7 @@
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>44</v>
@@ -7931,18 +7746,16 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>420</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7966,13 +7779,13 @@
         <v>44</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>44</v>
+        <v>395</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>44</v>
+        <v>396</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -7990,13 +7803,13 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
@@ -8008,13 +7821,13 @@
         <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>422</v>
+        <v>44</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -8022,7 +7835,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8033,7 +7846,7 @@
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>44</v>
@@ -8045,18 +7858,16 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>54</v>
+        <v>399</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>427</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>44</v>
       </c>
@@ -8104,13 +7915,13 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
@@ -8122,13 +7933,13 @@
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>429</v>
+        <v>44</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>44</v>
@@ -8136,7 +7947,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8147,7 +7958,7 @@
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>44</v>
@@ -8159,20 +7970,18 @@
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>289</v>
+        <v>184</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>44</v>
       </c>
@@ -8196,13 +8005,11 @@
         <v>44</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>44</v>
+        <v>406</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
@@ -8220,13 +8027,13 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>44</v>
@@ -8235,16 +8042,16 @@
         <v>64</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>44</v>
+        <v>410</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>44</v>
@@ -8252,11 +8059,9 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>44</v>
       </c>
@@ -8265,7 +8070,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>44</v>
@@ -8277,20 +8082,18 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>162</v>
+        <v>412</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>164</v>
+        <v>414</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>44</v>
       </c>
@@ -8314,11 +8117,13 @@
         <v>44</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>441</v>
+        <v>44</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>44</v>
@@ -8336,7 +8141,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>168</v>
+        <v>411</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8351,16 +8156,16 @@
         <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>44</v>
+        <v>416</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>169</v>
+        <v>417</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>170</v>
+        <v>418</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>44</v>
+        <v>410</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
@@ -8368,7 +8173,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8379,7 +8184,7 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>44</v>
@@ -8391,13 +8196,13 @@
         <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>54</v>
+        <v>420</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>131</v>
+        <v>421</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>132</v>
+        <v>422</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8448,28 +8253,28 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>133</v>
+        <v>419</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>44</v>
+        <v>423</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>44</v>
+        <v>424</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>134</v>
+        <v>425</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>44</v>
@@ -8480,11 +8285,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8503,16 +8308,16 @@
         <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>97</v>
+        <v>428</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>136</v>
+        <v>429</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>137</v>
+        <v>430</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>113</v>
+        <v>431</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8550,19 +8355,19 @@
         <v>44</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>139</v>
+        <v>426</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8574,16 +8379,16 @@
         <v>44</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>44</v>
+        <v>432</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>134</v>
+        <v>434</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>44</v>
@@ -8594,7 +8399,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8602,10 +8407,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>44</v>
@@ -8617,26 +8422,24 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>66</v>
+        <v>436</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>442</v>
+        <v>44</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>44</v>
@@ -8678,13 +8481,13 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>44</v>
@@ -8696,10 +8499,10 @@
         <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>409</v>
+        <v>441</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>44</v>
@@ -8710,18 +8513,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>44</v>
+        <v>443</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>44</v>
@@ -8733,18 +8536,20 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>44</v>
       </c>
@@ -8768,13 +8573,13 @@
         <v>44</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>44</v>
+        <v>448</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>44</v>
+        <v>449</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>44</v>
@@ -8792,13 +8597,13 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>44</v>
@@ -8810,21 +8615,21 @@
         <v>44</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>44</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8835,7 +8640,7 @@
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>44</v>
@@ -8844,21 +8649,19 @@
         <v>44</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>72</v>
+        <v>453</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>418</v>
+        <v>12</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>420</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>44</v>
       </c>
@@ -8906,13 +8709,13 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>44</v>
@@ -8921,24 +8724,24 @@
         <v>64</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>44</v>
+        <v>455</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>422</v>
+        <v>232</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>44</v>
+        <v>457</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8964,15 +8767,13 @@
         <v>54</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>427</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
@@ -9020,7 +8821,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -9038,10 +8839,10 @@
         <v>44</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>429</v>
+        <v>232</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>430</v>
+        <v>461</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -9052,7 +8853,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9063,7 +8864,7 @@
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>44</v>
@@ -9072,23 +8873,21 @@
         <v>44</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>289</v>
+        <v>463</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>433</v>
+        <v>465</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>44</v>
       </c>
@@ -9136,13 +8935,13 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
@@ -9151,1499 +8950,23 @@
         <v>64</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>44</v>
+        <v>467</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>437</v>
+        <v>95</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN77" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN77">
+  <autoFilter ref="A1:AN64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10653,7 +8976,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
